--- a/inc/flattened/createYaml/VTI-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTI-splitstem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1273B190-AD69-9B40-91BD-9229104FC078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA4844-8354-F048-AE7B-C4E80E3CCEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27300" yWindow="5200" windowWidth="27320" windowHeight="14860" xr2:uid="{B3487B63-25A5-BB42-95F2-8056A59367C3}"/>
+    <workbookView xWindow="-27320" yWindow="5060" windowWidth="27320" windowHeight="14860" xr2:uid="{B3487B63-25A5-BB42-95F2-8056A59367C3}"/>
   </bookViews>
   <sheets>
     <sheet name="VTI_IND" sheetId="1" r:id="rId1"/>
@@ -1425,730 +1425,730 @@
     <t>od&lt;&lt;ayaan</t>
   </si>
   <si>
-    <t>waabandan&gt;&gt;ziiwaanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwaangen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwangen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwegwen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziigwen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwaagwen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziinigwen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwiingen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwaan</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwan</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwaang</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwang</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziweg</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;zig</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;zigwaa</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;zinig</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;zing</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwaambaan</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwamban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwaangiban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwangiban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwegiban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziwegoban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;zigoban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;zigwaaban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;zinigoban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;zingiban</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwaambaanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwambanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwaangibanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwangibanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwegibanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwegobanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziigobanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwaagobanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziinigobanen</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;ziiwiingibanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owaanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owaangen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owangen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owegwen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;ogwen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owaagwen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owiingen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owaad</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owaapan</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owaambaanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owambanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owaangibanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owangibanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owegibanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owegobanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;ogobanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;owaagobanen</t>
-  </si>
-  <si>
-    <t>wabandam&gt;&gt;owiingibanen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;inigwen</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;aan</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;an</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;aang</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;ang</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;eg</t>
-  </si>
-  <si>
-    <t>waabandan&gt;&gt;g</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;inid</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;ing</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;aambaan</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;amban</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;aangiban</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;angiban</t>
-  </si>
-  <si>
     <t>waabandam&gt;&gt;egiban1</t>
   </si>
   <si>
-    <t>waabandan&gt;&gt;giban</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;inipan</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;ingiban</t>
-  </si>
-  <si>
-    <t>waabandam&gt;&gt;inigobanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwaanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwaangen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwangen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwegwen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siigwen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwaagwen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siinigwen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwiingen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwaambaanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwambanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwaangibanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwangibanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwegibanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwegobanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siigobanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siiwaagobanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siinigobanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwaan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwaang</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwang</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siweg</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;sig</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;sigwaa</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;sinig</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;sing</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwaambaan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwamban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwaangiban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwangiban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwegiban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;siwegoban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;sigoban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;sigwaaban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;sinigoban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;singiban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;waanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;waangen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wangen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wegwen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;waagwen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wiingen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;waad</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;waapan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;waambaanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wambanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;waangibanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wangibanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wegibanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wegobanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;waagobanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;wiingibanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;gwen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;gobanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;nigwen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yaan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yaang</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yang</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yeg</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;d</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;nid</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;ng</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yaambaan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yamban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yaangiban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yangiban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yegiban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;yegoban</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;pan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;nipan</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;ngiban</t>
-  </si>
-  <si>
-    <t>wantioo&gt;&gt;siiwiingibanen</t>
-  </si>
-  <si>
-    <t>wanitoo&gt;&gt;nigobanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwaanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwaangen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwangen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwegwen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siigwen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwaagwen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siinigwen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwiingen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwaan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwaang</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwang</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siweg</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;sig</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;sigwaa</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;sinig</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;sing</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwaambaan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwamban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwaangiban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwangiban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwegiban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siwegoban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;sigoban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;sigwaaban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;sinigoban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;singiban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwaambaanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwambanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwaangibanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwangibanen</t>
-  </si>
-  <si>
     <t>miiji&gt;&gt;siiwegibanen1</t>
   </si>
   <si>
-    <t>miiji&gt;&gt;siiwegobanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siigobanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwaagobanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siinigobanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;siiwiingibanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;waanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;waangen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wangen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wegwen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;waagwen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wiingen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;waad</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;waapan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;waambaanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wambanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;waangibanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wangibanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wegibanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wegobanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;waagobanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;wiingibanen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;gwen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;nigwen</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yaang</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yang</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yeg</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;d</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;nid</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;ng</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yaan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yaambaan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yamban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yaangiban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yangiban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yegiban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;pan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;nipan</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;yegoban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;ngiban</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;gobanen</t>
-  </si>
-  <si>
-    <t>ayaan&gt;&gt;ziwaan</t>
-  </si>
-  <si>
-    <t>ayaan&gt;&gt;ziwan</t>
-  </si>
-  <si>
-    <t>ayaan&gt;&gt;ziwaang</t>
-  </si>
-  <si>
-    <t>ayaan&gt;&gt;ziwang</t>
-  </si>
-  <si>
-    <t>ayaan&gt;&gt;ziweg</t>
-  </si>
-  <si>
-    <t>ayaan&gt;&gt;zig</t>
-  </si>
-  <si>
-    <t>ayaan&gt;&gt;zigwaa</t>
-  </si>
-  <si>
-    <t>ayaan&gt;&gt;zinig</t>
-  </si>
-  <si>
-    <t>ayaam&gt;&gt;an</t>
-  </si>
-  <si>
-    <t>ayaam&gt;&gt;aang</t>
-  </si>
-  <si>
-    <t>ayaam&gt;&gt;ang</t>
-  </si>
-  <si>
-    <t>ayaam&gt;&gt;eg</t>
-  </si>
-  <si>
-    <t>ayaa&gt;&gt;ng</t>
-  </si>
-  <si>
-    <t>ayaam&gt;&gt;owaad</t>
-  </si>
-  <si>
-    <t>ayaam&gt;&gt;inid</t>
-  </si>
-  <si>
-    <t>miiji&gt;&gt;nigobanen</t>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwaangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwegwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwaagwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziinigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwiingen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owaangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owegwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;ogwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owaagwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;inigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owiingen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwaang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziweg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;zig</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;zigwaa</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;zinig</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;zing</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;aan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;an</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;aang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;ang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;eg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;g</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owaad</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;inid</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;ing</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwaambaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwamban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwaangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwegiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;zigoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;zigwaaban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;zinigoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;zingiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;aambaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;amban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;aangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;angiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;giban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owaapan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;inipan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;ingiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwaambaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwambanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwaangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwegibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwaagobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziinigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwiingibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owaambaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owambanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owaangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owegibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;ogobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owaagobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;inigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wabandam&gt;&gt;owiingibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwaangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwegwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwaagwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siinigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwiingen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;waanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;waangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wegwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;gwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;waagwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;nigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wiingen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwaang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siweg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;sig</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;sigwaa</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;sinig</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;sing</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yaang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yeg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;d</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;waad</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;nid</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;ng</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwaambaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwamban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwaangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwegiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;sigoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;sigwaaban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;sinigoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;singiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yaambaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yamban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yaangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yegiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;pan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;waapan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;nipan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;ngiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwaambaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwambanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwaangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwegibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwaagobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siinigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wantioo&gt;&gt;siiwiingibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;waambaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wambanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;waangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wegibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;gobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;waagobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;nigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wiingibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwaangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwegwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwaagwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siinigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwiingen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;waanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;waangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wangen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wegwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;gwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;waagwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;nigwen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wiingen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwaang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siweg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;sig</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;sigwaa</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;sinig</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;sing</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yaang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yeg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;d</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;waad</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;nid</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;ng</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwaambaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwamban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwaangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwegiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;sigoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;sigwaaban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;sinigoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;singiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yaambaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yamban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yaangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yangiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yegiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;pan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;waapan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;nipan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;ngiban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwaambaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwambanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwaangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwaagobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siinigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwiingibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;waambaanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wambanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;waangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wangibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wegibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;gobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;waagobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;nigobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wiingibanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaan&gt;&gt;ziwaan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaan&gt;&gt;ziwan</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaan&gt;&gt;ziwaang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaan&gt;&gt;ziwang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaan&gt;&gt;ziweg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaan&gt;&gt;zig</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaan&gt;&gt;zigwaa</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaan&gt;&gt;zinig</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaam&gt;&gt;an</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaam&gt;&gt;aang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaam&gt;&gt;ang</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaam&gt;&gt;eg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaa&gt;&gt;ng</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaam&gt;&gt;owaad</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ayaam&gt;&gt;inid</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;wegobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siiwegobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;yegoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;miiji&gt;&gt;siwegoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;wegobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siiwegobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;yegoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;wanitoo&gt;&gt;siwegoban</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandam&gt;&gt;owegobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziiwegobanen</t>
+  </si>
+  <si>
+    <t>&lt;&lt;waabandan&gt;&gt;ziwegoban</t>
   </si>
 </sst>
 </file>
@@ -2502,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A13B67-2206-C24E-B77C-511E4224659A}">
   <dimension ref="A1:K581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" zoomScale="170" workbookViewId="0">
-      <selection activeCell="I319" sqref="I319"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="170" workbookViewId="0">
+      <selection activeCell="J527" sqref="J527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19085,8 +19085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C464A0D-9499-3742-9866-F8A002038C62}">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="I240" sqref="I240"/>
+    <sheetView topLeftCell="B1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19095,7 +19095,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19160,7 +19160,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -19189,7 +19189,7 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -19218,7 +19218,7 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -19247,7 +19247,7 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -19276,7 +19276,7 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -19305,7 +19305,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -19334,7 +19334,7 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -19363,7 +19363,7 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -19418,7 +19418,7 @@
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -19447,7 +19447,7 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -19476,7 +19476,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -19505,7 +19505,7 @@
         <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -19534,7 +19534,7 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -19563,7 +19563,7 @@
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -19592,7 +19592,7 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -19621,7 +19621,7 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -19650,7 +19650,7 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -19705,7 +19705,7 @@
         <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -19734,7 +19734,7 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -19763,7 +19763,7 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -19792,7 +19792,7 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -19821,7 +19821,7 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -19850,7 +19850,7 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -19879,7 +19879,7 @@
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -19908,7 +19908,7 @@
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -19937,7 +19937,7 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -19992,7 +19992,7 @@
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -20021,7 +20021,7 @@
         <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -20050,7 +20050,7 @@
         <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -20079,7 +20079,7 @@
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -20108,7 +20108,7 @@
         <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -20137,7 +20137,7 @@
         <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -20166,7 +20166,7 @@
         <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -20195,7 +20195,7 @@
         <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -20224,7 +20224,7 @@
         <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -20279,7 +20279,7 @@
         <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -20308,7 +20308,7 @@
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -20337,7 +20337,7 @@
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -20366,7 +20366,7 @@
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -20395,7 +20395,7 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -20424,10 +20424,10 @@
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="J46" t="s">
-        <v>486</v>
+        <v>704</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -20456,7 +20456,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -20485,7 +20485,7 @@
         <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -20514,7 +20514,7 @@
         <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -20569,7 +20569,7 @@
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -20598,7 +20598,7 @@
         <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -20627,7 +20627,7 @@
         <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -20656,7 +20656,7 @@
         <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -20685,7 +20685,7 @@
         <v>33</v>
       </c>
       <c r="I55" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -20714,7 +20714,7 @@
         <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -20743,7 +20743,7 @@
         <v>33</v>
       </c>
       <c r="I57" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -20772,7 +20772,7 @@
         <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -20801,7 +20801,7 @@
         <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -20856,7 +20856,7 @@
         <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -20885,7 +20885,7 @@
         <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -20914,7 +20914,7 @@
         <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -20943,7 +20943,7 @@
         <v>32</v>
       </c>
       <c r="I64" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -20972,7 +20972,7 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -21001,10 +21001,10 @@
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="J66" t="s">
-        <v>496</v>
+        <v>703</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -21033,7 +21033,7 @@
         <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -21062,7 +21062,7 @@
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -21091,7 +21091,7 @@
         <v>32</v>
       </c>
       <c r="I69" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -21146,7 +21146,7 @@
         <v>32</v>
       </c>
       <c r="I71" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -21175,7 +21175,7 @@
         <v>33</v>
       </c>
       <c r="I72" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -21204,7 +21204,7 @@
         <v>33</v>
       </c>
       <c r="I73" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -21233,7 +21233,7 @@
         <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -21262,7 +21262,7 @@
         <v>33</v>
       </c>
       <c r="I75" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -21291,10 +21291,10 @@
         <v>33</v>
       </c>
       <c r="I76" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="J76" t="s">
-        <v>516</v>
+        <v>702</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -21323,7 +21323,7 @@
         <v>33</v>
       </c>
       <c r="I77" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -21352,7 +21352,7 @@
         <v>33</v>
       </c>
       <c r="I78" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -21381,7 +21381,7 @@
         <v>33</v>
       </c>
       <c r="I79" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -21436,7 +21436,7 @@
         <v>33</v>
       </c>
       <c r="I81" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -21465,7 +21465,7 @@
         <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -21494,7 +21494,7 @@
         <v>32</v>
       </c>
       <c r="I83" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -21523,7 +21523,7 @@
         <v>32</v>
       </c>
       <c r="I84" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -21552,7 +21552,7 @@
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -21581,7 +21581,7 @@
         <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -21610,7 +21610,7 @@
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -21639,7 +21639,7 @@
         <v>32</v>
       </c>
       <c r="I88" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -21668,7 +21668,7 @@
         <v>32</v>
       </c>
       <c r="I89" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -21723,7 +21723,7 @@
         <v>32</v>
       </c>
       <c r="I91" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -21752,7 +21752,7 @@
         <v>33</v>
       </c>
       <c r="I92" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -21781,7 +21781,7 @@
         <v>33</v>
       </c>
       <c r="I93" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -21810,7 +21810,7 @@
         <v>33</v>
       </c>
       <c r="I94" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -21839,7 +21839,7 @@
         <v>33</v>
       </c>
       <c r="I95" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -21868,7 +21868,7 @@
         <v>33</v>
       </c>
       <c r="I96" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -21897,7 +21897,7 @@
         <v>33</v>
       </c>
       <c r="I97" t="s">
-        <v>592</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -21926,7 +21926,7 @@
         <v>33</v>
       </c>
       <c r="I98" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -21955,7 +21955,7 @@
         <v>33</v>
       </c>
       <c r="I99" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -22010,7 +22010,7 @@
         <v>33</v>
       </c>
       <c r="I101" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -22039,7 +22039,7 @@
         <v>32</v>
       </c>
       <c r="I102" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -22068,7 +22068,7 @@
         <v>32</v>
       </c>
       <c r="I103" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -22097,7 +22097,7 @@
         <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -22126,7 +22126,7 @@
         <v>32</v>
       </c>
       <c r="I105" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -22155,7 +22155,7 @@
         <v>32</v>
       </c>
       <c r="I106" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -22184,7 +22184,7 @@
         <v>32</v>
       </c>
       <c r="I107" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -22213,7 +22213,7 @@
         <v>32</v>
       </c>
       <c r="I108" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -22242,7 +22242,7 @@
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -22297,7 +22297,7 @@
         <v>32</v>
       </c>
       <c r="I111" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -22326,7 +22326,7 @@
         <v>33</v>
       </c>
       <c r="I112" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -22355,7 +22355,7 @@
         <v>33</v>
       </c>
       <c r="I113" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -22384,7 +22384,7 @@
         <v>33</v>
       </c>
       <c r="I114" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -22413,7 +22413,7 @@
         <v>33</v>
       </c>
       <c r="I115" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -22442,7 +22442,7 @@
         <v>33</v>
       </c>
       <c r="I116" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -22471,7 +22471,7 @@
         <v>33</v>
       </c>
       <c r="I117" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -22500,7 +22500,7 @@
         <v>33</v>
       </c>
       <c r="I118" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -22529,7 +22529,7 @@
         <v>33</v>
       </c>
       <c r="I119" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -22584,7 +22584,7 @@
         <v>33</v>
       </c>
       <c r="I121" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -22613,7 +22613,7 @@
         <v>32</v>
       </c>
       <c r="I122" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -22642,7 +22642,7 @@
         <v>32</v>
       </c>
       <c r="I123" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -22671,7 +22671,7 @@
         <v>32</v>
       </c>
       <c r="I124" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -22700,7 +22700,7 @@
         <v>32</v>
       </c>
       <c r="I125" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -22729,10 +22729,10 @@
         <v>32</v>
       </c>
       <c r="I126" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="J126" t="s">
-        <v>570</v>
+        <v>701</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -22761,7 +22761,7 @@
         <v>32</v>
       </c>
       <c r="I127" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -22790,7 +22790,7 @@
         <v>32</v>
       </c>
       <c r="I128" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -22819,7 +22819,7 @@
         <v>32</v>
       </c>
       <c r="I129" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -22874,7 +22874,7 @@
         <v>32</v>
       </c>
       <c r="I131" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -22903,7 +22903,7 @@
         <v>33</v>
       </c>
       <c r="I132" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -22932,7 +22932,7 @@
         <v>33</v>
       </c>
       <c r="I133" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -22961,7 +22961,7 @@
         <v>33</v>
       </c>
       <c r="I134" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -22990,7 +22990,7 @@
         <v>33</v>
       </c>
       <c r="I135" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -23019,10 +23019,10 @@
         <v>33</v>
       </c>
       <c r="I136" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="J136" t="s">
-        <v>608</v>
+        <v>700</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -23051,7 +23051,7 @@
         <v>33</v>
       </c>
       <c r="I137" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -23080,7 +23080,7 @@
         <v>33</v>
       </c>
       <c r="I138" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -23109,7 +23109,7 @@
         <v>33</v>
       </c>
       <c r="I139" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -23164,7 +23164,7 @@
         <v>33</v>
       </c>
       <c r="I141" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -23193,7 +23193,7 @@
         <v>32</v>
       </c>
       <c r="I142" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -23222,7 +23222,7 @@
         <v>32</v>
       </c>
       <c r="I143" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -23251,7 +23251,7 @@
         <v>32</v>
       </c>
       <c r="I144" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -23280,7 +23280,7 @@
         <v>32</v>
       </c>
       <c r="I145" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -23309,10 +23309,10 @@
         <v>32</v>
       </c>
       <c r="I146" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="J146" t="s">
-        <v>552</v>
+        <v>699</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -23341,7 +23341,7 @@
         <v>32</v>
       </c>
       <c r="I147" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -23370,7 +23370,7 @@
         <v>32</v>
       </c>
       <c r="I148" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -23399,7 +23399,7 @@
         <v>32</v>
       </c>
       <c r="I149" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -23454,7 +23454,7 @@
         <v>32</v>
       </c>
       <c r="I151" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -23483,7 +23483,7 @@
         <v>33</v>
       </c>
       <c r="I152" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -23512,7 +23512,7 @@
         <v>33</v>
       </c>
       <c r="I153" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -23541,7 +23541,7 @@
         <v>33</v>
       </c>
       <c r="I154" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -23570,7 +23570,7 @@
         <v>33</v>
       </c>
       <c r="I155" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -23599,10 +23599,10 @@
         <v>33</v>
       </c>
       <c r="I156" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="J156" t="s">
-        <v>589</v>
+        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -23631,7 +23631,7 @@
         <v>33</v>
       </c>
       <c r="I157" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -23660,7 +23660,7 @@
         <v>33</v>
       </c>
       <c r="I158" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -23689,7 +23689,7 @@
         <v>33</v>
       </c>
       <c r="I159" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -23744,7 +23744,7 @@
         <v>33</v>
       </c>
       <c r="I161" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -23773,7 +23773,7 @@
         <v>32</v>
       </c>
       <c r="I162" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -23802,7 +23802,7 @@
         <v>32</v>
       </c>
       <c r="I163" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -23831,7 +23831,7 @@
         <v>32</v>
       </c>
       <c r="I164" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -23860,7 +23860,7 @@
         <v>32</v>
       </c>
       <c r="I165" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -23889,7 +23889,7 @@
         <v>32</v>
       </c>
       <c r="I166" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -23918,7 +23918,7 @@
         <v>32</v>
       </c>
       <c r="I167" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -23947,7 +23947,7 @@
         <v>32</v>
       </c>
       <c r="I168" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -23976,7 +23976,7 @@
         <v>32</v>
       </c>
       <c r="I169" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -24031,7 +24031,7 @@
         <v>32</v>
       </c>
       <c r="I171" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -24060,7 +24060,7 @@
         <v>33</v>
       </c>
       <c r="I172" t="s">
-        <v>652</v>
+        <v>617</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -24089,7 +24089,7 @@
         <v>33</v>
       </c>
       <c r="I173" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -24118,7 +24118,7 @@
         <v>33</v>
       </c>
       <c r="I174" t="s">
-        <v>654</v>
+        <v>619</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -24147,7 +24147,7 @@
         <v>33</v>
       </c>
       <c r="I175" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -24176,7 +24176,7 @@
         <v>33</v>
       </c>
       <c r="I176" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -24205,7 +24205,7 @@
         <v>33</v>
       </c>
       <c r="I177" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -24234,7 +24234,7 @@
         <v>33</v>
       </c>
       <c r="I178" t="s">
-        <v>657</v>
+        <v>623</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -24263,7 +24263,7 @@
         <v>33</v>
       </c>
       <c r="I179" t="s">
-        <v>670</v>
+        <v>624</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -24318,7 +24318,7 @@
         <v>33</v>
       </c>
       <c r="I181" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -24347,7 +24347,7 @@
         <v>32</v>
       </c>
       <c r="I182" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -24376,7 +24376,7 @@
         <v>32</v>
       </c>
       <c r="I183" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -24405,7 +24405,7 @@
         <v>32</v>
       </c>
       <c r="I184" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -24434,7 +24434,7 @@
         <v>32</v>
       </c>
       <c r="I185" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -24463,7 +24463,7 @@
         <v>32</v>
       </c>
       <c r="I186" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -24492,7 +24492,7 @@
         <v>32</v>
       </c>
       <c r="I187" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -24521,7 +24521,7 @@
         <v>32</v>
       </c>
       <c r="I188" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -24550,7 +24550,7 @@
         <v>32</v>
       </c>
       <c r="I189" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -24605,7 +24605,7 @@
         <v>32</v>
       </c>
       <c r="I191" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -24634,7 +24634,7 @@
         <v>33</v>
       </c>
       <c r="I192" t="s">
-        <v>678</v>
+        <v>635</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -24663,7 +24663,7 @@
         <v>33</v>
       </c>
       <c r="I193" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -24692,7 +24692,7 @@
         <v>33</v>
       </c>
       <c r="I194" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
@@ -24721,7 +24721,7 @@
         <v>33</v>
       </c>
       <c r="I195" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
@@ -24750,7 +24750,7 @@
         <v>33</v>
       </c>
       <c r="I196" t="s">
-        <v>674</v>
+        <v>639</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
@@ -24779,7 +24779,7 @@
         <v>33</v>
       </c>
       <c r="I197" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -24808,7 +24808,7 @@
         <v>33</v>
       </c>
       <c r="I198" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
@@ -24837,7 +24837,7 @@
         <v>33</v>
       </c>
       <c r="I199" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -24892,7 +24892,7 @@
         <v>33</v>
       </c>
       <c r="I201" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -24921,7 +24921,7 @@
         <v>32</v>
       </c>
       <c r="I202" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -24950,7 +24950,7 @@
         <v>32</v>
       </c>
       <c r="I203" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -24979,7 +24979,7 @@
         <v>32</v>
       </c>
       <c r="I204" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -25008,7 +25008,7 @@
         <v>32</v>
       </c>
       <c r="I205" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -25037,10 +25037,10 @@
         <v>32</v>
       </c>
       <c r="I206" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="J206" t="s">
-        <v>637</v>
+        <v>697</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -25069,7 +25069,7 @@
         <v>32</v>
       </c>
       <c r="I207" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
@@ -25098,7 +25098,7 @@
         <v>32</v>
       </c>
       <c r="I208" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
@@ -25127,7 +25127,7 @@
         <v>32</v>
       </c>
       <c r="I209" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
@@ -25182,7 +25182,7 @@
         <v>32</v>
       </c>
       <c r="I211" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -25211,7 +25211,7 @@
         <v>33</v>
       </c>
       <c r="I212" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -25240,7 +25240,7 @@
         <v>33</v>
       </c>
       <c r="I213" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -25269,7 +25269,7 @@
         <v>33</v>
       </c>
       <c r="I214" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -25298,7 +25298,7 @@
         <v>33</v>
       </c>
       <c r="I215" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
@@ -25327,10 +25327,10 @@
         <v>33</v>
       </c>
       <c r="I216" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="J216" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
@@ -25359,7 +25359,7 @@
         <v>33</v>
       </c>
       <c r="I217" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
@@ -25388,7 +25388,7 @@
         <v>33</v>
       </c>
       <c r="I218" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -25417,7 +25417,7 @@
         <v>33</v>
       </c>
       <c r="I219" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
@@ -25472,7 +25472,7 @@
         <v>33</v>
       </c>
       <c r="I221" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
@@ -25501,7 +25501,7 @@
         <v>32</v>
       </c>
       <c r="I222" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
@@ -25530,7 +25530,7 @@
         <v>32</v>
       </c>
       <c r="I223" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
@@ -25559,7 +25559,7 @@
         <v>32</v>
       </c>
       <c r="I224" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
@@ -25588,7 +25588,7 @@
         <v>32</v>
       </c>
       <c r="I225" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
@@ -25617,10 +25617,10 @@
         <v>32</v>
       </c>
       <c r="I226" t="s">
-        <v>646</v>
+        <v>464</v>
       </c>
       <c r="J226" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
@@ -25649,7 +25649,7 @@
         <v>32</v>
       </c>
       <c r="I227" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
@@ -25678,7 +25678,7 @@
         <v>32</v>
       </c>
       <c r="I228" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
@@ -25707,7 +25707,7 @@
         <v>32</v>
       </c>
       <c r="I229" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
@@ -25762,7 +25762,7 @@
         <v>32</v>
       </c>
       <c r="I231" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -25791,7 +25791,7 @@
         <v>33</v>
       </c>
       <c r="I232" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
@@ -25820,7 +25820,7 @@
         <v>33</v>
       </c>
       <c r="I233" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
@@ -25849,7 +25849,7 @@
         <v>33</v>
       </c>
       <c r="I234" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -25878,7 +25878,7 @@
         <v>33</v>
       </c>
       <c r="I235" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
@@ -25907,10 +25907,10 @@
         <v>33</v>
       </c>
       <c r="I236" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="J236" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
@@ -25939,7 +25939,7 @@
         <v>33</v>
       </c>
       <c r="I237" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
@@ -25968,7 +25968,7 @@
         <v>33</v>
       </c>
       <c r="I238" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
@@ -25997,7 +25997,7 @@
         <v>33</v>
       </c>
       <c r="I239" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
@@ -26052,7 +26052,7 @@
         <v>33</v>
       </c>
       <c r="I241" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -26081,7 +26081,7 @@
         <v>32</v>
       </c>
       <c r="I242" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -26110,7 +26110,7 @@
         <v>32</v>
       </c>
       <c r="I243" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -26139,7 +26139,7 @@
         <v>32</v>
       </c>
       <c r="I244" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -26168,7 +26168,7 @@
         <v>32</v>
       </c>
       <c r="I245" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -26197,7 +26197,7 @@
         <v>32</v>
       </c>
       <c r="I246" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -26226,7 +26226,7 @@
         <v>32</v>
       </c>
       <c r="I247" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -26255,7 +26255,7 @@
         <v>32</v>
       </c>
       <c r="I248" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -26284,7 +26284,7 @@
         <v>32</v>
       </c>
       <c r="I249" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -26365,7 +26365,7 @@
         <v>33</v>
       </c>
       <c r="I252" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -26394,7 +26394,7 @@
         <v>33</v>
       </c>
       <c r="I253" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -26423,7 +26423,7 @@
         <v>33</v>
       </c>
       <c r="I254" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -26452,7 +26452,7 @@
         <v>33</v>
       </c>
       <c r="I255" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -26481,7 +26481,7 @@
         <v>33</v>
       </c>
       <c r="I256" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -26510,7 +26510,7 @@
         <v>33</v>
       </c>
       <c r="I257" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -26565,7 +26565,7 @@
         <v>33</v>
       </c>
       <c r="I259" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -26629,18 +26629,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26809,6 +26809,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87906FA-555E-44FE-8CE8-286F6253717E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEF8D93-91CB-4159-853C-C3180DA1A0F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26821,14 +26829,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87906FA-555E-44FE-8CE8-286F6253717E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/inc/flattened/createYaml/VTI-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTI-splitstem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA4844-8354-F048-AE7B-C4E80E3CCEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F839F92-066F-1A42-BFB6-D912F4359F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="5060" windowWidth="27320" windowHeight="14860" xr2:uid="{B3487B63-25A5-BB42-95F2-8056A59367C3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B3487B63-25A5-BB42-95F2-8056A59367C3}"/>
   </bookViews>
   <sheets>
     <sheet name="VTI_IND" sheetId="1" r:id="rId1"/>
@@ -2502,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A13B67-2206-C24E-B77C-511E4224659A}">
   <dimension ref="A1:K581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="125" workbookViewId="0">
       <selection activeCell="J527" sqref="J527"/>
     </sheetView>
   </sheetViews>
@@ -26629,21 +26629,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDA4FEBE11D32545B6C4D443ADFB229A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fa29c2c3225ad03fb09b8df90fa91a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b103a3be-6c61-44b0-93c5-2b779aa38a01" xmlns:ns3="56612388-9f28-4625-93a0-6879c02082d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c16c82533632c11d7fcceef7f9e9ea5" ns2:_="" ns3:_="">
     <xsd:import namespace="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
@@ -26808,10 +26793,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87906FA-555E-44FE-8CE8-286F6253717E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA749A8-ABF7-4373-8F49-4DE43F4D0BB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
+    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26834,20 +26845,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA749A8-ABF7-4373-8F49-4DE43F4D0BB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87906FA-555E-44FE-8CE8-286F6253717E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
-    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inc/flattened/createYaml/VTI-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTI-splitstem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85C5EF-7701-C745-BD49-DE370EA8CC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B9716-F775-B846-A508-6A9284F37AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{B3487B63-25A5-BB42-95F2-8056A59367C3}"/>
   </bookViews>

--- a/inc/flattened/createYaml/VTI-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTI-splitstem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B9716-F775-B846-A508-6A9284F37AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C4E3C5-C984-9F49-929F-FC48C5C3E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{B3487B63-25A5-BB42-95F2-8056A59367C3}"/>
   </bookViews>
@@ -19085,7 +19085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C464A0D-9499-3742-9866-F8A002038C62}">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="136" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="136" workbookViewId="0">
       <selection activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
@@ -26638,12 +26638,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDA4FEBE11D32545B6C4D443ADFB229A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fa29c2c3225ad03fb09b8df90fa91a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b103a3be-6c61-44b0-93c5-2b779aa38a01" xmlns:ns3="56612388-9f28-4625-93a0-6879c02082d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c16c82533632c11d7fcceef7f9e9ea5" ns2:_="" ns3:_="">
     <xsd:import namespace="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
@@ -26808,6 +26802,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87906FA-555E-44FE-8CE8-286F6253717E}">
   <ds:schemaRefs>
@@ -26817,23 +26817,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEF8D93-91CB-4159-853C-C3180DA1A0F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA749A8-ABF7-4373-8F49-4DE43F4D0BB7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26850,4 +26833,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEF8D93-91CB-4159-853C-C3180DA1A0F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inc/flattened/createYaml/VTI-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTI-splitstem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568CD34D-5171-1443-9D9C-BEC33B807840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0A8E4-1565-BA48-8A38-1CD94A37A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27340" yWindow="5080" windowWidth="27320" windowHeight="14860" activeTab="1" xr2:uid="{B3487B63-25A5-BB42-95F2-8056A59367C3}"/>
+    <workbookView xWindow="-27320" yWindow="5080" windowWidth="27320" windowHeight="14860" xr2:uid="{B3487B63-25A5-BB42-95F2-8056A59367C3}"/>
   </bookViews>
   <sheets>
     <sheet name="VTI_IND" sheetId="1" r:id="rId1"/>
@@ -2609,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A13B67-2206-C24E-B77C-511E4224659A}">
   <dimension ref="A1:L581"/>
   <sheetViews>
-    <sheetView topLeftCell="A581" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="J432" sqref="J432"/>
     </sheetView>
   </sheetViews>
@@ -21009,7 +21009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C464A0D-9499-3742-9866-F8A002038C62}">
   <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -29336,6 +29336,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDA4FEBE11D32545B6C4D443ADFB229A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fa29c2c3225ad03fb09b8df90fa91a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b103a3be-6c61-44b0-93c5-2b779aa38a01" xmlns:ns3="56612388-9f28-4625-93a0-6879c02082d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c16c82533632c11d7fcceef7f9e9ea5" ns2:_="" ns3:_="">
     <xsd:import namespace="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
@@ -29500,36 +29515,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA749A8-ABF7-4373-8F49-4DE43F4D0BB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87906FA-555E-44FE-8CE8-286F6253717E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
-    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29552,9 +29541,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B87906FA-555E-44FE-8CE8-286F6253717E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA749A8-ABF7-4373-8F49-4DE43F4D0BB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
+    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>